--- a/doors-detector/results/house1_experimentk_CriterionType.MIN_0.75.xlsx
+++ b/doors-detector/results/house1_experimentk_CriterionType.MIN_0.75.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.8152985932689373</v>
+        <v>0.8082425405254058</v>
       </c>
       <c r="F5" t="n">
         <v>1010</v>
       </c>
       <c r="G5" t="n">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="H5" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.7480663529908351</v>
+        <v>0.7488231622587216</v>
       </c>
       <c r="F6" t="n">
         <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.6728615927776168</v>
+        <v>0.6564422217880724</v>
       </c>
       <c r="F7" t="n">
         <v>82</v>
       </c>
       <c r="G7" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.8328426911627957</v>
+        <v>0.8218779180231148</v>
       </c>
       <c r="F8" t="n">
         <v>1010</v>
       </c>
       <c r="G8" t="n">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="H8" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.8145109574019849</v>
+        <v>0.8091264920574217</v>
       </c>
       <c r="F9" t="n">
         <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.6480380336535458</v>
+        <v>0.6654439045461863</v>
       </c>
       <c r="F10" t="n">
         <v>82</v>
       </c>
       <c r="G10" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H10" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.8193944029784499</v>
+        <v>0.8245098782752949</v>
       </c>
       <c r="F11" t="n">
         <v>1010</v>
       </c>
       <c r="G11" t="n">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="H11" t="n">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7963587790655459</v>
+        <v>0.7685244236583521</v>
       </c>
       <c r="F12" t="n">
         <v>28</v>
@@ -824,7 +824,7 @@
         <v>24</v>
       </c>
       <c r="H12" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.7302954135092306</v>
+        <v>0.7070511932314512</v>
       </c>
       <c r="F13" t="n">
         <v>82</v>
@@ -856,7 +856,7 @@
         <v>71</v>
       </c>
       <c r="H13" t="n">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.8331560362399028</v>
+        <v>0.8219396292835695</v>
       </c>
       <c r="F14" t="n">
         <v>1010</v>
       </c>
       <c r="G14" t="n">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="H14" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.845753228827763</v>
+        <v>0.8512164402901885</v>
       </c>
       <c r="F15" t="n">
         <v>28</v>
@@ -920,7 +920,7 @@
         <v>26</v>
       </c>
       <c r="H15" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.7110317667585994</v>
+        <v>0.6855710718870361</v>
       </c>
       <c r="F16" t="n">
         <v>82</v>
       </c>
       <c r="G16" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H16" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.8233723529502534</v>
+        <v>0.8381989376050716</v>
       </c>
       <c r="F17" t="n">
         <v>1010</v>
       </c>
       <c r="G17" t="n">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="H17" t="n">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.8231122164574349</v>
+        <v>0.7295363978924905</v>
       </c>
       <c r="F18" t="n">
         <v>28</v>
       </c>
       <c r="G18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.681514342678335</v>
+        <v>0.6991198594643511</v>
       </c>
       <c r="F19" t="n">
         <v>82</v>
@@ -1048,7 +1048,7 @@
         <v>70</v>
       </c>
       <c r="H19" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.8353183094297354</v>
+        <v>0.8479021465975872</v>
       </c>
       <c r="F20" t="n">
         <v>1010</v>
       </c>
       <c r="G20" t="n">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="H20" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.8348545545707093</v>
+        <v>0.8376312229923731</v>
       </c>
       <c r="F21" t="n">
         <v>28</v>
@@ -1112,7 +1112,7 @@
         <v>26</v>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.6859012162824361</v>
+        <v>0.6582061917985721</v>
       </c>
       <c r="F22" t="n">
         <v>82</v>
@@ -1144,7 +1144,7 @@
         <v>68</v>
       </c>
       <c r="H22" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.8110005896467327</v>
+        <v>0.8406551986054702</v>
       </c>
       <c r="F23" t="n">
         <v>1010</v>
       </c>
       <c r="G23" t="n">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="H23" t="n">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24">
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.852335380154867</v>
+        <v>0.8643131984232797</v>
       </c>
       <c r="F24" t="n">
         <v>28</v>
@@ -1208,7 +1208,7 @@
         <v>26</v>
       </c>
       <c r="H24" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -1231,16 +1231,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6949466683009835</v>
+        <v>0.7000725118443921</v>
       </c>
       <c r="F25" t="n">
         <v>82</v>
       </c>
       <c r="G25" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H25" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
@@ -1263,16 +1263,16 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.8492289533227363</v>
+        <v>0.8256817871781924</v>
       </c>
       <c r="F26" t="n">
         <v>1010</v>
       </c>
       <c r="G26" t="n">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="H26" t="n">
-        <v>124</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27">
@@ -1295,7 +1295,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.8413044477485472</v>
+        <v>0.8602323656735422</v>
       </c>
       <c r="F27" t="n">
         <v>28</v>
@@ -1304,7 +1304,7 @@
         <v>25</v>
       </c>
       <c r="H27" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -1327,16 +1327,16 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.7356557469116211</v>
+        <v>0.7577896242133233</v>
       </c>
       <c r="F28" t="n">
         <v>82</v>
       </c>
       <c r="G28" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H28" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
